--- a/Panama_pocillopora_articles_10-11-23/Pocilloporapanama_meta_primers_10.11.23.xlsx
+++ b/Panama_pocillopora_articles_10-11-23/Pocilloporapanama_meta_primers_10.11.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive - Universite de Liege\OBSIDIAN\Project Panama\Data\Panama_pocillopora_articles_10-11-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8effac1d09b8e0e/OneDrive liège/OBSIDIAN/Project Panama/Data/Panama_pocillopora_articles_10-11-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F721694-6E16-4189-AB51-B9B4BBCFA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{5F721694-6E16-4189-AB51-B9B4BBCFA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33FB0CC4-5C4E-455F-8064-7EC9C971AA13}"/>
   <bookViews>
-    <workbookView xWindow="12857" yWindow="0" windowWidth="12857" windowHeight="16543" xr2:uid="{B59C49F7-382D-4728-9169-968088488D40}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{B59C49F7-382D-4728-9169-968088488D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">Primer name </t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>5’-TAGAATGCTGGCGCACATAA-3’</t>
+  </si>
+  <si>
+    <t>locus</t>
+  </si>
+  <si>
+    <t>ATPS</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>ORF</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd PCR </t>
   </si>
 </sst>
 </file>
@@ -234,10 +252,96 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -246,11 +350,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,6 +387,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D666D8E9-EA04-42B7-A162-C35DC7FD9319}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="C2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -576,149 +701,231 @@
     <col min="2" max="2" width="16.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C4" s="11"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C6" s="12"/>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="12"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="11"/>
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
